--- a/out/pops_15/pops_15_all_data.xlsx
+++ b/out/pops_15/pops_15_all_data.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="run_parameters" sheetId="3" state="visible" r:id="rId1"/>
-    <sheet name="fragment_data" sheetId="4" state="visible" r:id="rId2"/>
-    <sheet name="seq_data" sheetId="5" state="visible" r:id="rId3"/>
+    <sheet name="run_parameters" sheetId="2" state="visible" r:id="rId1"/>
+    <sheet name="fragment_data" sheetId="3" state="visible" r:id="rId2"/>
+    <sheet name="seq_data" sheetId="4" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">accession</t>
   </si>
@@ -42,151 +42,85 @@
     <t xml:space="preserve">frag_length</t>
   </si>
   <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_1_1</t>
+    <t xml:space="preserve">Achn363401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achn363401.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achn363401.1_1</t>
   </si>
   <si>
     <t xml:space="preserve">1_A01_set1</t>
   </si>
   <si>
-    <t xml:space="preserve">TCCGCATGCACGTAAGGACGTCTCAAATGCGTCTCAAATGCGAAATTAATACGACTCACTATAGGGATAATACAACGGTTTCCCTCTACAAATAATTTTGTTTAACTTTAAGAAGGAGATATACATATGGCATCATACCCTTGTCACCAGCACGCATCTGCCTTCGATCAGGCCGCCCGCTCACGCGGCCACTCAGAGACGACTAGGATCGCGGCGAAA</t>
+    <t xml:space="preserve">TCCGCATGCACGTAAGGACGTCTCAAATGCGGTCTCTAATGAGGATGATGGGTTACAATGACGGTGCAGAGAGAGAGCTGAACTTGCCAGATTCATTCAACGTAGGTCGAAAGTTGCGCCCTCTGGTCCCTAGACCGCCAGTTACAACAACTATCCCCACCCTTAACTCAAATGCCCCATGTTTTTCCAGAGACGACTAGGATCGCGGCGAAA</t>
   </si>
   <si>
     <t xml:space="preserve">AATG</t>
   </si>
   <si>
-    <t xml:space="preserve">ACTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCGCATGCACGTAAGGACGTCTCAACTCAAACCGTCGCACAGCCCTTCGCCCGCGCCGTCAACAGGAGGCTACTGAGGTTCGCCTTGAGCAAAAGATGCCCACGCTTCTTCGCGTATACATTGATGGACCGCATGGGATGGGGAAAACGACGACGACTCAACTTCTGGTAGCCCTTGGAAGCCGTGATGATAGAGACGACTAGGATCGCGGCGAAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_1_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCGCATGCACGTAAGGACGTCTCATGATATCGTTTATGTCCCTGAACCGTTGACGTATTGGCAAGTATTAGGGGCAAGTGAAACCATTGCCAACATTTACACCACGCAGCATCGTTTAGACCAGGGGGAAATCTCTGCAGGTGATGCTGCCGTTGTGATGACTAGCGCCCAGATCACCATGGGAATGCCGTAGAGACGACTAGGATCGCGGCGAAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_1_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCGCATGCACGTAAGGACGTCTCACCGTACGCGGTGACTGACGCGGTTTTGGCCCCCCATATCGGGGGTGAGGCTGGCTCATCCCATGCTCCCCCTCCCGCGCTGACCTTGATCTTTGATCGCCACCCAATCGCCGCACTGCTTTGCTACCCCGCGGCGCGTTACCTGATGGGATCTATGACTCCACAAAGAGACGACTAGGATCGCGGCGAAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_1_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCGCATGCACGTAAGGACGTCTCAACAAGCGGTACTTGCGTTTGTCGCGCTTATCCCCCCTACCCTGCCGGGGACGAACATTGTCTTGGGAGCTCTTCCGGAAGATCGTCATATCGATCGCCTTGCAAAACGTCAACGTCCAGGAGAACGCCTTGATCTGGCTATGTTGGCGGCGATTCGCCGTAGAGACGGCTTAGAGACGACTAGGATCGCGGCGAAA</t>
+    <t xml:space="preserve">TTCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achn363401.1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCGCATGCACGTAAGGACGTCTCATTCCCGTAATATTCATGGGACTACTCATGATTTGCTTGCATTTAATCTGCATTTAGCGACTATGGCTGAAAAATCAAAGAGAGAGTTCAACAGTACTACACAACAAGTTGTGATGAGCTCAAGGTGGAACCCAACACCCGAGCAGCTACACACCCTCAAAGAATTGTATCAGAGACGACTAGGATCGCGGCGAAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achn363401.1_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCGCATGCACGTAAGGACGTCTCATATCGGCGGGGGACTCGAACGCCTTCCGCAGACCAAATTCAGCATATCACCTCTCATCTCCGCAGATATGGAAAAATTGAAGGCAAGAATGTTTTCTATTGGTTTCAGAATCACAAGGCTAGAGAGCGTCAAAAACGTCGAAGGAAAAATGGAGCACCCCCATCTAGAGACGACTAGGATCGCGGCGAAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achn363401.1_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCGCATGCACGTAAGGACGTCTCAATCTCAATCTCAAGATAATGATCAACAACATTACCCAGACAATGAAAGAAAAGAAAGTGGAACGGGTACAGGTACAGTGGCAAATAGGACACCTAATTTTGAAGTTGGCTGGGCTTTACCAAGAAACTGCACTACTACACTTGCAGAGAAAACTTCTTCCATACAAGAGACGACTAGGATCGCGGCGAAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achn363401.1_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCGCATGCACGTAAGGACGTCTCATACAAAGTGGGCCACCGCCTGCGGCTGCTGCTGAACTTACAACAGAAGGATGGTTACATTTCGATGAAGGAGAAATATTTCATCAGAGAAGGAATGCCACATGGCACCAGCATATGATGCACTTGTCTAGTTCCTCACTTCCTACCCACCACTTGATAAACACTTGTACGGAGAGACGACTAGGATCGCGGCGAAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achn363401.1_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCGCATGCACGTAAGGACGTCTCAACGGCTGCGGCTACGACGTCTAGTACTTCGACTATTGCAAACTCAACTTCGTCTAATACCTCTCAAACCCTAACAACAACAATGGATCAGCCTAAGCTCATGATCAAGGCCTCTCAGGATTTAAACTACTTCTTTAGAAAGAATCTAAACTGTTCGTTCAGCAACCATTATAGAGACGACTAGGATCGCGGCGAAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achn363401.1_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCGCATGCACGTAAGGACGTCTCATTATGCTGATGAGGAAGTCTACGGAGCTCCGGATCAAACCCTCCAGCTGTTTCCTCTTCGTAGCAGCGGTGACTGCGATGAGAGGGAGAAAATGAACACCAACTTCACTCCTGAACAGTTTTTCGAGTTTCTTCCGTTGAAGAATTGAGCTTAGAGACCGCTTAGAGACGACTAGGATCGCGGCGAAA</t>
   </si>
   <si>
     <t xml:space="preserve">GCTT</t>
   </si>
   <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_A02_set2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTGCGGCTTCCCCTAATCGTCTCAAATGCGTCTCACCGTGTATATGGGTTACTTGCTAACACCGTCCGTTACTTGCAGGGTGGAGGGAGTTGGCGTGAGGATTGGGGCCAACTTTCCGGCACCGCAGTACCGCCACAAGGTGCTGAACCGCAGTCCAATGCCGGTCCACGTCCCCACATCGGTGATAGAGACGTCCTAAGCGTGTGGTGGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_2_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTGCGGCTTCCCCTAATCGTCTCATGATACTTTATTCACGTTGTTCCGTGCGCCCGAGCTTTTGGCGCCAAATGGAGATCTTTATAACGTGTTCGCCTGGGCGTTAGACGTCTTGGCGAAACGCCTTCGTCCCATGCATGTTTTCATCTTAGATTATGACCAGAGCCCTGCTGGATGTCGTGACGCACTGCTGCAACTTAAGAGACGTCCTAAGCGTGTGGTGGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_2_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTGCGGCTTCCCCTAATCGTCTCACTTACATCGGGTATGGTACAGACACATGTCACAACCCCAGGTAGTATCCCCACCATTTGTGATTTGGCGCGTACCTTTGCGCGTGAAATGGGGGAGGCAAATTGAGAATTTGTTTAACTTTAAGAAGGAGATATACATATGGCCAAACTTACAAGTGCAGTTCCGGTCTTGAAGAGACGTCCTAAGCGTGTGGTGGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_2_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTGCGGCTTCCCCTAATCGTCTCATTGACAGCCCGCGATGTCGCGGGGGCGGTAGAGTTTTGGACTGACCGTTTAGGGTTTTCTCGCGACTTCGTCGAGGATGACTTCGCGGGTGTCGTTCGCGATGATGTCACTCTTTTCATCAGTGCTGTACAGGATCAGGTAGTACCGGATAACACACTGGCCTGGGTATGGGTCCGAGAGACGTCCTAAGCGTGTGGTGGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_2_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTGCGGCTTCCCCTAATCGTCTCATCCGTGGGTTGGATGAGCTTTATGCCGAGTGGTCAGAAGTAGTTTCAACGAACTTTCGTGATGCAAGTGGTCCGGCAATGACGGAGATTGGGGAGCAGCCTTGGGGTCGTGAATTTGCGCTGCGCGACCCGGCTGGTAATTGCGTCCATTTCGAGAGACGGCTTAGAGACGTCCTAAGCGTGTGGTGGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_3_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_A03_set3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGCACGCGACTTAGGCTCGTCTCAAATGCGTCTCATTCGTGGCGGAAGAACAGGATTGAGAATTTGTTTAACTTTAAGAAGGAGATATACATATGCGTAAAGGCGAAGAGCTGTTCACTGGTGTCGTCCCTATTCTGGTGGAACTGGATGGTGATGTCAACGGTCATAAGTTTTCCGTGCGTGGAGAGACGACGTCTTAGCCACCGCAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_3_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGCACGCGACTTAGGCTCGTCTCAGTGGCGAGGGTGAAGGTGACGCAACTAATGGTAAACTGACGCTGAAGTTCATCTGTACTACTGGTAAACTGCCAGTACCTTGGCCGACTCTGGTAACGACGCTGACTTATGGTGTTCAGTGCTTTGCTCGTTATCCGGACCACATGAAGCAGCATGACTTCTTCAAGTCAGAGACGACGTCTTAGCCACCGCAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_3_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGCACGCGACTTAGGCTCGTCTCAAGTCCGCCATGCCGGAAGGCTATGTGCAGGAACGCACGATTTCATTTAAGGATGACGGCACGTACAAAACGCGTGCGGAAGTGAAATTTGAAGGCGATACCCTGGTAAACCGCATTGAGCTGAAAGGCATTGACTTTAAAGAAGACGGCAATATCCTGGGCCATAAGCTGGAATACAAGAGACGACGTCTTAGCCACCGCAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_3_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGCACGCGACTTAGGCTCGTCTCATACAATTTTAACAGCCACAATGTTTACATCACCGCCGATAAACAAAAAAATGGCATTAAAGCGAATTTCAAAATTCGCCACAACGTGGAGGATGGCAGCGTGCAGCTGGCTGATCACTACCAGCAAAACACTCCAATCGGTGATGGTCCTGTTCTGCTGCCAGACAAAGAGACGACGTCTTAGCCACCGCAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBG_GGGATAAT.1.1_L0_3_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGCACGCGACTTAGGCTCGTCTCAACAATCACTATCTGAGCACGCAAAGCGTTCTGTCTAAAGATCCGAACGAGAAACGCGATCACATGGTTCTGCTGGAGTTCGTAACCGCAGCGGGCATCACGCACGGTATGGATGAACTGTACAAATGAGAACTCTTGTTCAGAACGCTCGGTGCTTAGAGACGGCTTAGAGACGACGTCTTAGCCACCGCAA</t>
+    <t xml:space="preserve">f_primer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_primer</t>
   </si>
   <si>
     <t xml:space="preserve">total_fragments</t>
@@ -201,10 +135,10 @@
     <t xml:space="preserve">fidelity</t>
   </si>
   <si>
-    <t xml:space="preserve">f_primer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_primer</t>
+    <t xml:space="preserve">input_cai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chiseled_cai</t>
   </si>
   <si>
     <t xml:space="preserve">input_seq</t>
@@ -213,49 +147,19 @@
     <t xml:space="preserve">chiseled_seq</t>
   </si>
   <si>
-    <t xml:space="preserve">second_step_assembly_seq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTC, TGAT, CCGT, ACAA</t>
-  </si>
-  <si>
     <t xml:space="preserve">TCCGCATGCACGTAAGGA</t>
   </si>
   <si>
     <t xml:space="preserve">TTTCGCCGCGATCCTAGT</t>
   </si>
   <si>
-    <t xml:space="preserve">CGAAATTAATACGACTCACTATAGGGATAATACAACGGTTTCCCTCTACAAATAATTTTGTTTAACTTTAAGAAGGAGATATACATATGGCATCATACCCTTGTCACCAGCACGCATCTGCCTTCGATCAGGCCGCCCGCTCACGCGGCCACTCAAACCGTCGCACAGCCCTTCGCCCGCGCCGTCAACAGGAGGCTACTGAGGTTCGCCTTGAGCAAAAGATGCCCACGCTTCTTCGCGTATACATTGATGGACCGCATGGGATGGGGAAAACGACGACGACTCAACTTCTGGTAGCCCTTGGAAGCCGTGATGATATCGTTTATGTCCCTGAACCGTTGACGTATTGGCAAGTATTAGGGGCAAGTGAAACCATTGCCAACATTTACACCACGCAGCATCGTTTAGACCAGGGGGAAATCTCTGCAGGTGATGCTGCCGTTGTGATGACTAGCGCCCAGATCACCATGGGAATGCCGTACGCGGTGACTGACGCGGTTTTGGCCCCCCATATCGGGGGTGAGGCTGGCTCATCCCATGCTCCCCCTCCCGCGCTGACCTTGATCTTTGATCGCCACCCAATCGCCGCACTGCTTTGCTACCCCGCGGCGCGTTACCTGATGGGATCTATGACTCCACAAGCGGTACTTGCGTTTGTCGCGCTTATCCCCCCTACCCTGCCGGGGACGAACATTGTCTTGGGAGCTCTTCCGGAAGATCGTCATATCGATCGCCTTGCAAAACGTCAACGTCCAGGAGAACGCCTTGATCTGGCTATGTTGGCGGCGATTCGCCGTGTATATGGGTTACTTGCTAACACCGTCCGTTACTTGCAGGGTGGAGGGAGTTGGCGTGAGGATTGGGGCCAACTTTCCGGCACCGCAGTACCGCCACAAGGTGCTGAACCGCAGTCCAATGCCGGTCCACGTCCCCACATCGGTGATACTTTATTCACGTTGTTCCGTGCGCCCGAGCTTTTGGCGCCAAATGGAGATCTTTATAACGTGTTCGCCTGGGCGTTAGACGTCTTGGCGAAACGCCTTCGTCCCATGCATGTTTTCATCTTAGATTATGACCAGAGCCCTGCTGGATGTCGTGACGCACTGCTGCAACTTACATCGGGTATGGTACAGACACATGTCACAACCCCAGGTAGTATCCCCACCATTTGTGATTTGGCGCGTACCTTTGCGCGTGAAATGGGGGAGGCAAATTGAGAATTTGTTTAACTTTAAGAAGGAGATATACATATGGCCAAACTTACAAGTGCAGTTCCGGTCTTGACAGCCCGCGATGTCGCGGGGGCGGTAGAGTTTTGGACTGACCGTTTAGGGTTTTCTCGCGACTTCGTCGAGGATGACTTCGCGGGTGTCGTTCGCGATGATGTCACTCTTTTCATCAGTGCTGTACAGGATCAGGTAGTACCGGATAACACACTGGCCTGGGTATGGGTCCGTGGGTTGGATGAGCTTTATGCCGAGTGGTCAGAAGTAGTTTCAACGAACTTTCGTGATGCAAGTGGTCCGGCAATGACGGAGATTGGGGAGCAGCCTTGGGGTCGTGAATTTGCGCTGCGCGACCCGGCTGGTAATTGCGTCCATTTCGTGGCGGAAGAACAGGATTGAGAATTTGTTTAACTTTAAGAAGGAGATATACATATGCGTAAAGGCGAAGAGCTGTTCACTGGTGTCGTCCCTATTCTGGTGGAACTGGATGGTGATGTCAACGGTCATAAGTTTTCCGTGCGTGGCGAGGGTGAAGGTGACGCAACTAATGGTAAACTGACGCTGAAGTTCATCTGTACTACTGGTAAACTGCCAGTACCTTGGCCGACTCTGGTAACGACGCTGACTTATGGTGTTCAGTGCTTTGCTCGTTATCCGGACCACATGAAGCAGCATGACTTCTTCAAGTCCGCCATGCCGGAAGGCTATGTGCAGGAACGCACGATTTCATTTAAGGATGACGGCACGTACAAAACGCGTGCGGAAGTGAAATTTGAAGGCGATACCCTGGTAAACCGCATTGAGCTGAAAGGCATTGACTTTAAAGAAGACGGCAATATCCTGGGCCATAAGCTGGAATACAATTTTAACAGCCACAATGTTTACATCACCGCCGATAAACAAAAAAATGGCATTAAAGCGAATTTCAAAATTCGCCACAACGTGGAGGATGGCAGCGTGCAGCTGGCTGATCACTACCAGCAAAACACTCCAATCGGTGATGGTCCTGTTCTGCTGCCAGACAATCACTATCTGAGCACGCAAAGCGTTCTGTCTAAAGATCCGAACGAGAAACGCGATCACATGGTTCTGCTGGAGTTCGTAACCGCAGCGGGCATCACGCACGGTATGGATGAACTGTACAAATGAGAACTCTTGTTCAGAACGCTCGGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AATGCGTCTCAAATGCGAAATTAATACGACTCACTATAGGGATAATACAACGGTTTCCCTCTACAAATAATTTTGTTTAACTTTAAGAAGGAGATATACATATGGCATCATACCCTTGTCACCAGCACGCATCTGCCTTCGATCAGGCCGCCCGCTCACGCGGCCACTCAAACCGTCGCACAGCCCTTCGCCCGCGCCGTCAACAGGAGGCTACTGAGGTTCGCCTTGAGCAAAAGATGCCCACGCTTCTTCGCGTATACATTGATGGACCGCATGGGATGGGGAAAACGACGACGACTCAACTTCTGGTAGCCCTTGGAAGCCGTGATGATATCGTTTATGTCCCTGAACCGTTGACGTATTGGCAAGTATTAGGGGCAAGTGAAACCATTGCCAACATTTACACCACGCAGCATCGTTTAGACCAGGGGGAAATCTCTGCAGGTGATGCTGCCGTTGTGATGACTAGCGCCCAGATCACCATGGGAATGCCGTACGCGGTGACTGACGCGGTTTTGGCCCCCCATATCGGGGGTGAGGCTGGCTCATCCCATGCTCCCCCTCCCGCGCTGACCTTGATCTTTGATCGCCACCCAATCGCCGCACTGCTTTGCTACCCCGCGGCGCGTTACCTGATGGGATCTATGACTCCACAAGCGGTACTTGCGTTTGTCGCGCTTATCCCCCCTACCCTGCCGGGGACGAACATTGTCTTGGGAGCTCTTCCGGAAGATCGTCATATCGATCGCCTTGCAAAACGTCAACGTCCAGGAGAACGCCTTGATCTGGCTATGTTGGCGGCGATTCGCCGTAGAGACGGCTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AATGCGAAATTAATACGACTCACTATAGGGATAATACAACGGTTTCCCTCTACAAATAATTTTGTTTAACTTTAAGAAGGAGATATACATATGGCATCATACCCTTGTCACCAGCACGCATCTGCCTTCGATCAGGCCGCCCGCTCACGCGGCCACTCAAACCGTCGCACAGCCCTTCGCCCGCGCCGTCAACAGGAGGCTACTGAGGTTCGCCTTGAGCAAAAGATGCCCACGCTTCTTCGCGTATACATTGATGGACCGCATGGGATGGGGAAAACGACGACGACTCAACTTCTGGTAGCCCTTGGAAGCCGTGATGATATCGTTTATGTCCCTGAACCGTTGACGTATTGGCAAGTATTAGGGGCAAGTGAAACCATTGCCAACATTTACACCACGCAGCATCGTTTAGACCAGGGGGAAATCTCTGCAGGTGATGCTGCCGTTGTGATGACTAGCGCCCAGATCACCATGGGAATGCCGTACGCGGTGACTGACGCGGTTTTGGCCCCCCATATCGGGGGTGAGGCTGGCTCATCCCATGCTCCCCCTCCCGCGCTGACCTTGATCTTTGATCGCCACCCAATCGCCGCACTGCTTTGCTACCCCGCGGCGCGTTACCTGATGGGATCTATGACTCCACAAGCGGTACTTGCGTTTGTCGCGCTTATCCCCCCTACCCTGCCGGGGACGAACATTGTCTTGGGAGCTCTTCCGGAAGATCGTCATATCGATCGCCTTGCAAAACGTCAACGTCCAGGAGAACGCCTTGATCTGGCTATGTTGGCGGCGATTCGCCGTGTATATGGGTTACTTGCTAACACCGTCCGTTACTTGCAGGGTGGAGGGAGTTGGCGTGAGGATTGGGGCCAACTTTCCGGCACCGCAGTACCGCCACAAGGTGCTGAACCGCAGTCCAATGCCGGTCCACGTCCCCACATCGGTGATACTTTATTCACGTTGTTCCGTGCGCCCGAGCTTTTGGCGCCAAATGGAGATCTTTATAACGTGTTCGCCTGGGCGTTAGACGTCTTGGCGAAACGCCTTCGTCCCATGCATGTTTTCATCTTAGATTATGACCAGAGCCCTGCTGGATGTCGTGACGCACTGCTGCAACTTACATCGGGTATGGTACAGACACATGTCACAACCCCAGGTAGTATCCCCACCATTTGTGATTTGGCGCGTACCTTTGCGCGTGAAATGGGGGAGGCAAATTGAGAATTTGTTTAACTTTAAGAAGGAGATATACATATGGCCAAACTTACAAGTGCAGTTCCGGTCTTGACAGCCCGCGATGTCGCGGGGGCGGTAGAGTTTTGGACTGACCGTTTAGGGTTTTCTCGCGACTTCGTCGAGGATGACTTCGCGGGTGTCGTTCGCGATGATGTCACTCTTTTCATCAGTGCTGTACAGGATCAGGTAGTACCGGATAACACACTGGCCTGGGTATGGGTCCGTGGGTTGGATGAGCTTTATGCCGAGTGGTCAGAAGTAGTTTCAACGAACTTTCGTGATGCAAGTGGTCCGGCAATGACGGAGATTGGGGAGCAGCCTTGGGGTCGTGAATTTGCGCTGCGCGACCCGGCTGGTAATTGCGTCCATTTCGTGGCGGAAGAACAGGATTGAGAATTTGTTTAACTTTAAGAAGGAGATATACATATGCGTAAAGGCGAAGAGCTGTTCACTGGTGTCGTCCCTATTCTGGTGGAACTGGATGGTGATGTCAACGGTCATAAGTTTTCCGTGCGTGGCGAGGGTGAAGGTGACGCAACTAATGGTAAACTGACGCTGAAGTTCATCTGTACTACTGGTAAACTGCCAGTACCTTGGCCGACTCTGGTAACGACGCTGACTTATGGTGTTCAGTGCTTTGCTCGTTATCCGGACCACATGAAGCAGCATGACTTCTTCAAGTCCGCCATGCCGGAAGGCTATGTGCAGGAACGCACGATTTCATTTAAGGATGACGGCACGTACAAAACGCGTGCGGAAGTGAAATTTGAAGGCGATACCCTGGTAAACCGCATTGAGCTGAAAGGCATTGACTTTAAAGAAGACGGCAATATCCTGGGCCATAAGCTGGAATACAATTTTAACAGCCACAATGTTTACATCACCGCCGATAAACAAAAAAATGGCATTAAAGCGAATTTCAAAATTCGCCACAACGTGGAGGATGGCAGCGTGCAGCTGGCTGATCACTACCAGCAAAACACTCCAATCGGTGATGGTCCTGTTCTGCTGCCAGACAATCACTATCTGAGCACGCAAAGCGTTCTGTCTAAAGATCCGAACGAGAAACGCGATCACATGGTTCTGCTGGAGTTCGTAACCGCAGCGGGCATCACGCACGGTATGGATGAACTGTACAAATGAGAACTCTTGTTCAGAACGCTCGGTGCTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGAT, CTTA, TTGA, TCCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTGCGGCTTCCCCTAAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCACCACACGCTTAGGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AATGCGTCTCACCGTGTATATGGGTTACTTGCTAACACCGTCCGTTACTTGCAGGGTGGAGGGAGTTGGCGTGAGGATTGGGGCCAACTTTCCGGCACCGCAGTACCGCCACAAGGTGCTGAACCGCAGTCCAATGCCGGTCCACGTCCCCACATCGGTGATACTTTATTCACGTTGTTCCGTGCGCCCGAGCTTTTGGCGCCAAATGGAGATCTTTATAACGTGTTCGCCTGGGCGTTAGACGTCTTGGCGAAACGCCTTCGTCCCATGCATGTTTTCATCTTAGATTATGACCAGAGCCCTGCTGGATGTCGTGACGCACTGCTGCAACTTACATCGGGTATGGTACAGACACATGTCACAACCCCAGGTAGTATCCCCACCATTTGTGATTTGGCGCGTACCTTTGCGCGTGAAATGGGGGAGGCAAATTGAGAATTTGTTTAACTTTAAGAAGGAGATATACATATGGCCAAACTTACAAGTGCAGTTCCGGTCTTGACAGCCCGCGATGTCGCGGGGGCGGTAGAGTTTTGGACTGACCGTTTAGGGTTTTCTCGCGACTTCGTCGAGGATGACTTCGCGGGTGTCGTTCGCGATGATGTCACTCTTTTCATCAGTGCTGTACAGGATCAGGTAGTACCGGATAACACACTGGCCTGGGTATGGGTCCGTGGGTTGGATGAGCTTTATGCCGAGTGGTCAGAAGTAGTTTCAACGAACTTTCGTGATGCAAGTGGTCCGGCAATGACGGAGATTGGGGAGCAGCCTTGGGGTCGTGAATTTGCGCTGCGCGACCCGGCTGGTAATTGCGTCCATTTCGAGAGACGGCTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTGG, AGTC, TACA, ACAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGCACGCGACTTAGGCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTGCGGTGGCTAAGACGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AATGCGTCTCATTCGTGGCGGAAGAACAGGATTGAGAATTTGTTTAACTTTAAGAAGGAGATATACATATGCGTAAAGGCGAAGAGCTGTTCACTGGTGTCGTCCCTATTCTGGTGGAACTGGATGGTGATGTCAACGGTCATAAGTTTTCCGTGCGTGGCGAGGGTGAAGGTGACGCAACTAATGGTAAACTGACGCTGAAGTTCATCTGTACTACTGGTAAACTGCCAGTACCTTGGCCGACTCTGGTAACGACGCTGACTTATGGTGTTCAGTGCTTTGCTCGTTATCCGGACCACATGAAGCAGCATGACTTCTTCAAGTCCGCCATGCCGGAAGGCTATGTGCAGGAACGCACGATTTCATTTAAGGATGACGGCACGTACAAAACGCGTGCGGAAGTGAAATTTGAAGGCGATACCCTGGTAAACCGCATTGAGCTGAAAGGCATTGACTTTAAAGAAGACGGCAATATCCTGGGCCATAAGCTGGAATACAATTTTAACAGCCACAATGTTTACATCACCGCCGATAAACAAAAAAATGGCATTAAAGCGAATTTCAAAATTCGCCACAACGTGGAGGATGGCAGCGTGCAGCTGGCTGATCACTACCAGCAAAACACTCCAATCGGTGATGGTCCTGTTCTGCTGCCAGACAATCACTATCTGAGCACGCAAAGCGTTCTGTCTAAAGATCCGAACGAGAAACGCGATCACATGGTTCTGCTGGAGTTCGTAACCGCAGCGGGCATCACGCACGGTATGGATGAACTGTACAAATGAGAACTCTTGTTCAGAACGCTCGGTGCTTAGAGACGGCTT</t>
+    <t xml:space="preserve">TTCC, TATC, ATCT, TACA, ACGG, TTAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATGAGGATGATGGGTTACAATGACGGTGCAGAGAGAGAGCTGAACTTGCCAGATTCATTCAACGTAGGTCGAAAGTTGCGCCCTCTGGTCCCTAGACCGCCAGTTACAACAACTATCCCCACCCTTAACTCAAATGCCCCATGTTTTTCCCGTAATATTCATGGGACTACTCATGATTTGCTTGCATTTAATCTGCATTTAGCGACTATGGCTGAAAAATCAAAGAGAGAGTTCAACAGTACTACACAACAAGTTGTGATGAGCTCAAGGTGGAACCCAACACCCGAGCAGCTACACACCCTCAAAGAATTGTATCGGCGGGGGACTCGAACGCCTTCCGCAGACCAAATTCAGCATATCACCTCTCATCTCCGCAGATATGGAAAAATTGAAGGCAAGAATGTTTTCTATTGGTTTCAGAATCACAAGGCTAGAGAGCGTCAAAAACGTCGAAGGAAAAATGGAGCACCCCCATCTCAATCTCAAGATAATGATCAACAACATTACCCAGACAATGAAAGAAAAGAAAGTGGAACGGGTACAGGTACAGTGGCAAATAGGACACCTAATTTTGAAGTTGGCTGGGCTTTACCAAGAAACTGCACTACTACACTTGCAGAGAAAACTTCTTCCATACAAAGTGGGCCACCGCCTGCGGCTGCTGCTGAACTTACAACAGAAGGATGGTTACATTTCGATGAAGGAGAAATATTTCATCAGAGAAGGAATGCCACATGGCACCAGCATATGATGCACTTGTCTAGTTCCTCACTTCCTACCCACCACTTGATAAACACTTGTACGGCTGCGGCTACGACGTCTAGTACTTCGACTATTGCAAACTCAACTTCGTCTAATACCTCTCAAACCCTAACAACAACAATGGATCAGCCTAAGCTCATGATCAAGGCCTCTCAGGATTTAAACTACTTCTTTAGAAAGAATCTAAACTGTTCGTTCAGCAACCATTATGCTGATGAGGAAGTCTACGGAGCTCCGGATCAAACCCTCCAGCTGTTTCCTCTTCGTAGCAGCGGTGACTGCGATGAGAGGGAGAAAATGAACACCAACTTCACTCCTGAACAGTTTTTCGAGTTTCTTCCGTTGAAGAATTGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AATGCGGTCTCTAATGAGGATGATGGGTTACAATGACGGTGCAGAGAGAGAGCTGAACTTGCCAGATTCATTCAACGTAGGTCGAAAGTTGCGCCCTCTGGTCCCTAGACCGCCAGTTACAACAACTATCCCCACCCTTAACTCAAATGCCCCATGTTTTTCCCGTAATATTCATGGGACTACTCATGATTTGCTTGCATTTAATCTGCATTTAGCGACTATGGCTGAAAAATCAAAGAGAGAGTTCAACAGTACTACACAACAAGTTGTGATGAGCTCAAGGTGGAACCCAACACCCGAGCAGCTACACACCCTCAAAGAATTGTATCGGCGGGGGACTCGAACGCCTTCCGCAGACCAAATTCAGCATATCACCTCTCATCTCCGCAGATATGGAAAAATTGAAGGCAAGAATGTTTTCTATTGGTTTCAGAATCACAAGGCTAGAGAGCGTCAAAAACGTCGAAGGAAAAATGGAGCACCCCCATCTCAATCTCAAGATAATGATCAACAACATTACCCAGACAATGAAAGAAAAGAAAGTGGAACGGGTACAGGTACAGTGGCAAATAGGACACCTAATTTTGAAGTTGGCTGGGCTTTACCAAGAAACTGCACTACTACACTTGCAGAGAAAACTTCTTCCATACAAAGTGGGCCACCGCCTGCGGCTGCTGCTGAACTTACAACAGAAGGATGGTTACATTTCGATGAAGGAGAAATATTTCATCAGAGAAGGAATGCCACATGGCACCAGCATATGATGCACTTGTCTAGTTCCTCACTTCCTACCCACCACTTGATAAACACTTGTACGGCTGCGGCTACGACGTCTAGTACTTCGACTATTGCAAACTCAACTTCGTCTAATACCTCTCAAACCCTAACAACAACAATGGATCAGCCTAAGCTCATGATCAAGGCCTCTCAGGATTTAAACTACTTCTTTAGAAAGAATCTAAACTGTTCGTTCAGCAACCATTATGCTGATGAGGAAGTCTACGGAGCTCCGGATCAAACCCTCCAGCTGTTTCCTCTTCGTAGCAGCGGTGACTGCGATGAGAGGGAGAAAATGAACACCAACTTCACTCCTGAACAGTTTTTCGAGTTTCTTCCGTTGAAGAATTGAGCTTAGAGACCGCTT</t>
   </si>
 </sst>
 </file>
@@ -692,7 +596,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AATG</t>
+          <t>AATGCGGTCTCTA</t>
         </is>
       </c>
     </row>
@@ -704,7 +608,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GCTT</t>
+          <t>GCTTAGAGACCGCTT</t>
         </is>
       </c>
     </row>
@@ -740,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -820,7 +724,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>no_mods</t>
+          <t>chisel</t>
         </is>
       </c>
     </row>
@@ -832,7 +736,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>e_coli</t>
+          <t>arabidopsis</t>
         </is>
       </c>
     </row>
@@ -1040,7 +944,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[{'type': 'AvoidPattern', 'pattern': 'BsaI_site', 'strand': 'both'}, {'type': 'AvoidPattern', 'pattern': 'BsmBI_site', 'strand': 'both'}, {'type': 'AvoidPattern', 'pattern': 'BbsI_site', 'strand': 'both'}, {'type': 'AvoidPattern', 'pattern': 'SapI_site', 'strand': 'both'}, {'type': 'AvoidPattern', 'pattern': 'BtgZI', 'strand': 'both'}, {'type': 'AvoidPattern', 'pattern': 'AAAAAA', 'strand': 'both'}, {'type': 'AvoidPattern', 'pattern': 'CCCCCC', 'strand': 'both'}, {'type': 'EnforceTranslation'}, {'type': 'AvoidHairpins', 'stem_size': 20, 'hairpin_window': 250}, {'type': 'EnforceGCContent', 'mini': 0.2, 'maxi': 0.6, 'window': 65}]</t>
+          <t>[{'type': 'AvoidPattern', 'pattern': 'BsaI_site', 'strand': 'both'}, {'type': 'AvoidPattern', 'pattern': 'BsmBI_site', 'strand': 'both'}, {'type': 'AvoidPattern', 'pattern': 'BbsI_site', 'strand': 'both'}, {'type': 'AvoidPattern', 'pattern': 'SapI_site', 'strand': 'both'}, {'type': 'AvoidPattern', 'pattern': 'BtgZI', 'strand': 'both'}, {'type': 'AvoidPattern', 'pattern': 'AAAAAA', 'strand': 'both'}, {'type': 'AvoidPattern', 'pattern': 'CCCCCC', 'strand': 'both'}, {'type': 'EnforceTranslation'}, {'type': 'AvoidHairpins', 'stem_size': 20, 'hairpin_window': 250}, {'type': 'EnforceGCContent', 'mini': 0.2, 'maxi': 0.6, 'window': 60}]</t>
         </is>
       </c>
     </row>
@@ -1064,7 +968,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>in/test.gb</t>
+          <t>in/test.fasta</t>
         </is>
       </c>
     </row>
@@ -1088,7 +992,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>yaml/gb_mcu.yml</t>
+          <t>yaml/moclo_cds_mcu.yml</t>
         </is>
       </c>
     </row>
@@ -1100,6 +1004,138 @@
       </c>
       <c r="B38" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>constraint_1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>{'type': 'AvoidPattern', 'pattern': 'BsaI_site', 'strand': 'both'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>constraint_2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>{'type': 'AvoidPattern', 'pattern': 'BsmBI_site', 'strand': 'both'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>constraint_3</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>{'type': 'AvoidPattern', 'pattern': 'BbsI_site', 'strand': 'both'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>constraint_4</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>{'type': 'AvoidPattern', 'pattern': 'SapI_site', 'strand': 'both'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>constraint_5</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>{'type': 'AvoidPattern', 'pattern': 'BtgZI', 'strand': 'both'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>constraint_6</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>{'type': 'AvoidPattern', 'pattern': 'AAAAAA', 'strand': 'both'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>constraint_7</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>{'type': 'AvoidPattern', 'pattern': 'CCCCCC', 'strand': 'both'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>constraint_8</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>{'type': 'EnforceTranslation'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>constraint_9</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>{'type': 'AvoidHairpins', 'stem_size': 20, 'hairpin_window': 250}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>constraint_10</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>{'type': 'EnforceGCContent', 'mini': 0.2, 'maxi': 0.6, 'window': 60}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>optimization_1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>{'type': 'UniquifyAllKmers', 'include_reverse_complement': True, 'k': 10}</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1201,7 @@
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
@@ -1191,7 +1227,7 @@
         <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
@@ -1217,7 +1253,7 @@
         <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
@@ -1277,25 +1313,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
       <c r="H7" t="n">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8">
@@ -1303,233 +1339,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" t="n">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="n">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="n">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="n">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" t="n">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" t="n">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="n">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" t="n">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1557,31 +1385,34 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -1594,108 +1425,35 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.998026503644582</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" t="s">
-        <v>70</v>
+        <v>45</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.997421434535454</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.769712888645997</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.772286454662771</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.998681474892948</v>
-      </c>
-      <c r="H3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.998529841083028</v>
-      </c>
-      <c r="H4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
